--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Ziel</t>
   </si>
@@ -57,6 +57,42 @@
   </si>
   <si>
     <t>Testen der Applikation</t>
+  </si>
+  <si>
+    <t>Woche</t>
+  </si>
+  <si>
+    <t>Aufgabe</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>Florian</t>
+  </si>
+  <si>
+    <t>Claudio</t>
+  </si>
+  <si>
+    <t>Ionic Framework testen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VM bereit stellen </t>
+  </si>
+  <si>
+    <t>GitHUB auf VM</t>
+  </si>
+  <si>
+    <t>Atom auf VM</t>
+  </si>
+  <si>
+    <t>RaspberryPI bereitstellen</t>
+  </si>
+  <si>
+    <t>über Node.js informieren</t>
   </si>
 </sst>
 </file>
@@ -88,12 +124,48 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -136,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -145,6 +217,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -425,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C13"/>
+  <dimension ref="B1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,104 +517,321 @@
     <col min="1" max="1" width="1.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="91" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="12">
+        <v>16</v>
+      </c>
+      <c r="G3" s="12">
+        <v>17</v>
+      </c>
+      <c r="H3" s="12">
+        <v>18</v>
+      </c>
+      <c r="I3" s="12">
+        <v>19</v>
+      </c>
+      <c r="J3" s="12">
+        <v>20</v>
+      </c>
+      <c r="K3" s="12">
+        <v>21</v>
+      </c>
+      <c r="L3" s="12">
+        <v>22</v>
+      </c>
+      <c r="M3" s="12">
+        <v>23</v>
+      </c>
+      <c r="N3" s="12">
+        <v>24</v>
+      </c>
+      <c r="O3" s="12">
+        <v>25</v>
+      </c>
+      <c r="P3" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>21</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="E9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C10" s="7"/>
+      <c r="E10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>23</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="E11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>24</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>25</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
         <v>26</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bzt-user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Ziel</t>
   </si>
@@ -89,17 +89,55 @@
     <t>Atom auf VM</t>
   </si>
   <si>
-    <t>RaspberryPI bereitstellen</t>
-  </si>
-  <si>
     <t>über Node.js informieren</t>
+  </si>
+  <si>
+    <t>App planen</t>
+  </si>
+  <si>
+    <t>App erstellen</t>
+  </si>
+  <si>
+    <t>App testen</t>
+  </si>
+  <si>
+    <t>Raspberry PI bereitstellen</t>
+  </si>
+  <si>
+    <t>Racketenwerfer ansteuern 
+über Raspberry PI und Node.js</t>
+  </si>
+  <si>
+    <t>Ansteuerung über Wifi/Bluetooth</t>
+  </si>
+  <si>
+    <t>Zusammenführung und Test</t>
+  </si>
+  <si>
+    <t>Planung Abgabe</t>
+  </si>
+  <si>
+    <t>Abgabe Dokumentation PDF /
+Kommentierter Sourcecode ZIP</t>
+  </si>
+  <si>
+    <t>Präsentation vorbereiten</t>
+  </si>
+  <si>
+    <t>Dokumentieren</t>
+  </si>
+  <si>
+    <t>ev. Einbau der Kamera des Racketenwerfers (falls genügend Zeit)</t>
+  </si>
+  <si>
+    <t>Marco &amp; Florian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,8 +161,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +209,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -226,6 +277,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -506,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P15"/>
+  <dimension ref="B1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +583,8 @@
     <col min="1" max="1" width="1.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="91" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -542,6 +609,9 @@
       </c>
       <c r="J2" s="16" t="s">
         <v>5</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
@@ -633,18 +703,12 @@
       <c r="P5" s="12"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="F6" s="18"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="14"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="12"/>
@@ -656,13 +720,13 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="15"/>
@@ -677,14 +741,14 @@
       <c r="P7" s="12"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>21</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>7</v>
+      <c r="B8" s="4">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="15"/>
@@ -700,13 +764,13 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="15"/>
@@ -721,9 +785,14 @@
       <c r="P9" s="12"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
+      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="E10" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="15"/>
@@ -738,18 +807,13 @@
       <c r="P10" s="12"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>23</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="C11" s="7"/>
       <c r="E11" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="12"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="12"/>
@@ -761,18 +825,20 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="F12" s="12"/>
       <c r="G12" s="15"/>
       <c r="H12" s="12"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="12"/>
+      <c r="K12" s="10"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
@@ -781,18 +847,20 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" s="12"/>
       <c r="G13" s="15"/>
       <c r="H13" s="12"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="12"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
@@ -800,38 +868,176 @@
       <c r="P13" s="12"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
-        <v>26</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="12"/>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="F14" s="12"/>
       <c r="G14" s="15"/>
       <c r="H14" s="12"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E15" s="12"/>
+      <c r="B15" s="6">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="F15" s="12"/>
       <c r="G15" s="15"/>
       <c r="H15" s="12"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="12"/>
+      <c r="K15" s="18"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
+    </row>
+    <row r="16" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="E16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E17" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E18" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+    </row>
+    <row r="19" spans="5:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="E19" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="12"/>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E20" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="12"/>
+    </row>
+    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E21" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="14"/>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="5:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="E23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
